--- a/data/trans_orig/P63-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9E2BD54-6471-4E52-8E58-0AC3FCA49306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CBEAF2-5AD0-42B6-AEDB-2DEC0DAC1918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCB2EAD8-7DAC-4287-AAE3-4C350F152508}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4665F43E-721A-4EA6-A358-BCC857635715}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -77,118 +77,118 @@
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>37,57%</t>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>43,48%</t>
   </si>
   <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>48,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,751 +197,769 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
     <t>59,56%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D8C1A0-6394-43A8-87E2-BA2FFAAE648E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8044C4-1BF0-43AC-AE80-E89754146A44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2020,7 +2038,7 @@
         <v>1544</v>
       </c>
       <c r="N14" s="7">
-        <v>1546961</v>
+        <v>1546960</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2071,7 +2089,7 @@
         <v>3693</v>
       </c>
       <c r="N15" s="7">
-        <v>3712350</v>
+        <v>3712349</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC53F1F5-A665-4B25-8CD1-1D5A20F2A8C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3BB6C9-E3E0-413A-B8B3-21C0323917E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2249,7 +2267,7 @@
         <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>1263</v>
@@ -2258,13 +2276,13 @@
         <v>1361215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2297,13 @@
         <v>21114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>564</v>
@@ -2294,13 +2312,13 @@
         <v>603081</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>583</v>
@@ -2309,13 +2327,13 @@
         <v>624195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2401,13 @@
         <v>823362</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>669</v>
@@ -2398,13 +2416,13 @@
         <v>731778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1434</v>
@@ -2413,13 +2431,13 @@
         <v>1555141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2452,13 @@
         <v>217991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -2449,13 +2467,13 @@
         <v>442028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>638</v>
@@ -2464,13 +2482,13 @@
         <v>660019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2556,13 @@
         <v>134122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>142</v>
@@ -2553,13 +2571,13 @@
         <v>158473</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>263</v>
@@ -2568,13 +2586,13 @@
         <v>292594</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2607,13 @@
         <v>27777</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -2604,13 +2622,13 @@
         <v>64242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>88</v>
@@ -2619,13 +2637,13 @@
         <v>92020</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2711,13 @@
         <v>1726009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1362</v>
@@ -2708,13 +2726,13 @@
         <v>1482941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2960</v>
@@ -2723,13 +2741,13 @@
         <v>3208950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2762,13 @@
         <v>266882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1044</v>
@@ -2759,13 +2777,13 @@
         <v>1109351</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1309</v>
@@ -2774,13 +2792,13 @@
         <v>1376234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B694CB78-A465-466C-86F1-8DAD8B84FF0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA2E234-EED1-46AF-B78F-0BBF06CCCD22}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2997,13 @@
         <v>598103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>409</v>
@@ -2994,13 +3012,13 @@
         <v>447913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1024</v>
@@ -3009,13 +3027,13 @@
         <v>1046016</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3048,13 @@
         <v>13126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -3045,13 +3063,13 @@
         <v>467849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>418</v>
@@ -3060,13 +3078,13 @@
         <v>480975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3152,13 @@
         <v>920984</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>740</v>
@@ -3149,13 +3167,13 @@
         <v>780128</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1611</v>
@@ -3164,13 +3182,13 @@
         <v>1701113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3203,13 @@
         <v>226885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>525</v>
@@ -3200,13 +3218,13 @@
         <v>550215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -3215,13 +3233,13 @@
         <v>777099</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3307,13 @@
         <v>148015</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -3304,13 +3322,13 @@
         <v>180227</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>302</v>
@@ -3319,13 +3337,13 @@
         <v>328242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3358,13 @@
         <v>45210</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -3355,13 +3373,13 @@
         <v>60460</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -3370,13 +3388,13 @@
         <v>105670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3462,13 @@
         <v>1667102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1317</v>
@@ -3459,13 +3477,13 @@
         <v>1408269</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>2937</v>
@@ -3474,13 +3492,13 @@
         <v>3075371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3513,13 @@
         <v>285221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>989</v>
@@ -3510,13 +3528,13 @@
         <v>1078523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -3525,13 +3543,13 @@
         <v>1363744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A912C483-71D2-45A9-AB77-79B9438AC4AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DD4CE2-AA23-4622-B901-6D7F8D1D4705}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3748,13 @@
         <v>400952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>735</v>
@@ -3745,13 +3763,13 @@
         <v>397862</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1277</v>
@@ -3760,13 +3778,13 @@
         <v>798813</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3799,13 @@
         <v>6484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>564</v>
@@ -3796,13 +3814,13 @@
         <v>340774</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>571</v>
@@ -3811,13 +3829,13 @@
         <v>347259</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3903,13 @@
         <v>696222</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1086</v>
@@ -3900,13 +3918,13 @@
         <v>810163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1878</v>
@@ -3915,13 +3933,13 @@
         <v>1506384</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3954,13 @@
         <v>197279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -3951,13 +3969,13 @@
         <v>463521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>634</v>
@@ -3966,13 +3984,13 @@
         <v>660801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4058,13 @@
         <v>171736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>301</v>
@@ -4055,13 +4073,13 @@
         <v>187104</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>525</v>
@@ -4070,13 +4088,13 @@
         <v>358840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4109,13 @@
         <v>29630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -4106,13 +4124,13 @@
         <v>46385</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4121,13 +4139,13 @@
         <v>76015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4213,13 @@
         <v>1268910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>2122</v>
@@ -4210,13 +4228,13 @@
         <v>1395128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>3680</v>
@@ -4225,13 +4243,13 @@
         <v>2664038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4264,13 @@
         <v>233393</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>1156</v>
@@ -4261,13 +4279,13 @@
         <v>850680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1268</v>
@@ -4276,13 +4294,13 @@
         <v>1084074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P63-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CBEAF2-5AD0-42B6-AEDB-2DEC0DAC1918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73AC927-083C-48E0-BDDA-EA2AE3800F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4665F43E-721A-4EA6-A358-BCC857635715}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{19E282ED-37C6-4485-9854-5581730650B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si han trabajado anteriormente en 2007 (Tasa respuesta: 56,72%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>59,64%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>60,23%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>47,37%</t>
+    <t>47,42%</t>
   </si>
   <si>
     <t>53,65%</t>
@@ -158,19 +158,19 @@
     <t>54,1%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>49,36%</t>
@@ -179,16 +179,16 @@
     <t>46,35%</t>
   </si>
   <si>
-    <t>52,63%</t>
+    <t>52,58%</t>
   </si>
   <si>
     <t>45,9%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,352 +197,346 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>66,04%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2012 (Tasa respuesta: 65,7%)</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>29,8%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>71,15%</t>
   </si>
   <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>57,21%</t>
   </si>
   <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>71,3%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>42,79%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>30,01%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>Población según si han trabajado anteriormente en 2015 (Tasa respuesta: 64,2%)</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>Población según si han trabajado anteriormente en 2016 (Tasa respuesta: 64,2%)</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>48,91%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
   </si>
   <si>
     <t>68,5%</t>
@@ -551,31 +545,31 @@
     <t>65,84%</t>
   </si>
   <si>
-    <t>70,99%</t>
+    <t>70,93%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
   </si>
   <si>
     <t>51,09%</t>
   </si>
   <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
   </si>
   <si>
     <t>31,5%</t>
   </si>
   <si>
-    <t>29,01%</t>
+    <t>29,07%</t>
   </si>
   <si>
     <t>34,16%</t>
@@ -584,163 +578,163 @@
     <t>80,23%</t>
   </si>
   <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>68,64%</t>
   </si>
   <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
   </si>
   <si>
     <t>31,36%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>56,63%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>43,37%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>Población según si han trabajado anteriormente en 2023 (Tasa respuesta: 56,73%)</t>
@@ -863,9 +857,6 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
     <t>73,55%</t>
   </si>
   <si>
@@ -888,9 +879,6 @@
   </si>
   <si>
     <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
   </si>
   <si>
     <t>15,2%</t>
@@ -1371,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8044C4-1BF0-43AC-AE80-E89754146A44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52975F3E-280B-4066-9CCB-F140E15C5BB2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2122,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3BB6C9-E3E0-413A-B8B3-21C0323917E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B9536F-5765-4A68-9213-47F2A5DF192D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2744,10 +2732,10 @@
         <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2750,13 @@
         <v>266882</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1044</v>
@@ -2777,13 +2765,13 @@
         <v>1109351</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1309</v>
@@ -2792,13 +2780,13 @@
         <v>1376234</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA2E234-EED1-46AF-B78F-0BBF06CCCD22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6EEB67-9A26-4651-A709-5B3CF9E3D78A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2997,13 +2985,13 @@
         <v>598103</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>409</v>
@@ -3012,13 +3000,13 @@
         <v>447913</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1024</v>
@@ -3027,13 +3015,13 @@
         <v>1046016</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3036,13 @@
         <v>13126</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -3063,13 +3051,13 @@
         <v>467849</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>418</v>
@@ -3078,13 +3066,13 @@
         <v>480975</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3140,13 @@
         <v>920984</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>740</v>
@@ -3167,13 +3155,13 @@
         <v>780128</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1611</v>
@@ -3182,13 +3170,13 @@
         <v>1701113</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3191,13 @@
         <v>226885</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>525</v>
@@ -3218,13 +3206,13 @@
         <v>550215</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -3233,13 +3221,13 @@
         <v>777099</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3295,13 @@
         <v>148015</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -3322,13 +3310,13 @@
         <v>180227</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>302</v>
@@ -3337,13 +3325,13 @@
         <v>328242</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3346,13 @@
         <v>45210</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>59</v>
@@ -3373,13 +3361,13 @@
         <v>60460</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -3388,13 +3376,13 @@
         <v>105670</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3450,13 @@
         <v>1667102</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1317</v>
@@ -3477,13 +3465,13 @@
         <v>1408269</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>2937</v>
@@ -3492,13 +3480,13 @@
         <v>3075371</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3501,13 @@
         <v>285221</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>989</v>
@@ -3528,13 +3516,13 @@
         <v>1078523</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1259</v>
@@ -3543,13 +3531,13 @@
         <v>1363744</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DD4CE2-AA23-4622-B901-6D7F8D1D4705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8E230B-1503-498A-91A8-D71C35AE3448}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3641,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3748,13 +3736,13 @@
         <v>400952</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>735</v>
@@ -3763,13 +3751,13 @@
         <v>397862</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1277</v>
@@ -3778,13 +3766,13 @@
         <v>798813</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3787,13 @@
         <v>6484</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>564</v>
@@ -3814,13 +3802,13 @@
         <v>340774</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>571</v>
@@ -3829,13 +3817,13 @@
         <v>347259</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3891,13 @@
         <v>696222</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1086</v>
@@ -3918,13 +3906,13 @@
         <v>810163</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1878</v>
@@ -3933,13 +3921,13 @@
         <v>1506384</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3942,13 @@
         <v>197279</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -3969,13 +3957,13 @@
         <v>463521</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>634</v>
@@ -3984,13 +3972,13 @@
         <v>660801</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4046,13 @@
         <v>171736</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>301</v>
@@ -4073,13 +4061,13 @@
         <v>187104</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>525</v>
@@ -4088,13 +4076,13 @@
         <v>358840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4097,13 @@
         <v>29630</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>46</v>
@@ -4124,13 +4112,13 @@
         <v>46385</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -4139,13 +4127,13 @@
         <v>76015</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4201,13 @@
         <v>1268910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>2122</v>
@@ -4228,13 +4216,13 @@
         <v>1395128</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>3680</v>
@@ -4243,13 +4231,13 @@
         <v>2664038</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4252,13 @@
         <v>233393</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>1156</v>
@@ -4279,13 +4267,13 @@
         <v>850680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1268</v>
@@ -4294,13 +4282,13 @@
         <v>1084074</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P63-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5C93547-F3D9-4153-8BF6-AA7F56F5121E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8723AA1-527A-4670-90FF-F74DF0946B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74361BAF-2ADB-4B46-BBF8-2F6B5BAEC7E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D3F279A7-5E31-4A27-AA60-53536D92D03F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="512">
   <si>
     <t>Población según si la persona entrevistada ha trabajado anteriormente en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1187,109 +1187,106 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>1,97%</t>
@@ -1301,274 +1298,283 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0DB477-9475-480E-8EAF-89ACBD489778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEFAD0-E741-4673-BAC3-1F6E6F67000F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,7 +2290,7 @@
         <v>1096</v>
       </c>
       <c r="N7" s="7">
-        <v>1080561</v>
+        <v>1080560</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -2335,7 +2341,7 @@
         <v>723</v>
       </c>
       <c r="N8" s="7">
-        <v>732528</v>
+        <v>732527</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2386,7 +2392,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>50</v>
@@ -2664,7 +2670,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>50</v>
@@ -3127,7 +3133,7 @@
         <v>1832</v>
       </c>
       <c r="D24" s="7">
-        <v>1913129</v>
+        <v>1913128</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>116</v>
@@ -3280,7 +3286,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>50</v>
@@ -3295,7 +3301,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -3310,7 +3316,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>50</v>
@@ -3343,7 +3349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3D4F6B-219C-48C4-BE36-349089490CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8489D0-1A7D-4B10-A33A-A22D65E96A81}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,7 +3587,7 @@
         <v>130</v>
       </c>
       <c r="I6" s="7">
-        <v>139977</v>
+        <v>139978</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>151</v>
@@ -3632,7 +3638,7 @@
         <v>551</v>
       </c>
       <c r="I7" s="7">
-        <v>592690</v>
+        <v>592691</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>160</v>
@@ -3734,7 +3740,7 @@
         <v>1247</v>
       </c>
       <c r="I9" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -4314,7 +4320,7 @@
         <v>88</v>
       </c>
       <c r="N20" s="7">
-        <v>92019</v>
+        <v>92020</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>237</v>
@@ -4365,7 +4371,7 @@
         <v>850</v>
       </c>
       <c r="N21" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>50</v>
@@ -4706,7 +4712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A2452-D83D-4533-837B-2D746FBAD119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F64719-643C-46F5-A760-3E631B29B286}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5626,7 +5632,7 @@
         <v>302</v>
       </c>
       <c r="N19" s="7">
-        <v>328242</v>
+        <v>328243</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>342</v>
@@ -5728,7 +5734,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>50</v>
@@ -6069,7 +6075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D956F86-6DCF-4731-81A3-CD17CC34FAB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF0443E-6FB5-45B9-936B-5195ADD2B158}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6205,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>4602</v>
+        <v>4148</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>381</v>
@@ -6220,7 +6226,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>4602</v>
+        <v>4148</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>383</v>
@@ -6292,46 +6298,46 @@
         <v>142</v>
       </c>
       <c r="D6" s="7">
-        <v>134198</v>
+        <v>132102</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H6" s="7">
         <v>124</v>
       </c>
       <c r="I6" s="7">
-        <v>92715</v>
+        <v>83528</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M6" s="7">
         <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>226912</v>
+        <v>215630</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,28 +6349,28 @@
         <v>542</v>
       </c>
       <c r="D7" s="7">
-        <v>400952</v>
+        <v>376837</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H7" s="7">
         <v>735</v>
       </c>
       <c r="I7" s="7">
-        <v>397862</v>
+        <v>363391</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>399</v>
@@ -6373,7 +6379,7 @@
         <v>1277</v>
       </c>
       <c r="N7" s="7">
-        <v>798813</v>
+        <v>740228</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>400</v>
@@ -6394,46 +6400,46 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>6484</v>
+        <v>5999</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>564</v>
       </c>
       <c r="I8" s="7">
-        <v>340775</v>
+        <v>304441</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>571</v>
       </c>
       <c r="N8" s="7">
-        <v>347258</v>
+        <v>310439</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,7 +6451,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -6460,7 +6466,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -6475,7 +6481,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>50</v>
@@ -6498,46 +6504,46 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>30093</v>
+        <v>31894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>31840</v>
+        <v>27723</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>412</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>61933</v>
+        <v>59617</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6579,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6588,7 +6594,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,46 +6606,46 @@
         <v>1096</v>
       </c>
       <c r="D12" s="7">
-        <v>1238428</v>
+        <v>1384943</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H12" s="7">
         <v>1267</v>
       </c>
       <c r="I12" s="7">
-        <v>943996</v>
+        <v>946095</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M12" s="7">
         <v>2363</v>
       </c>
       <c r="N12" s="7">
-        <v>2182425</v>
+        <v>2331039</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6657,13 @@
         <v>792</v>
       </c>
       <c r="D13" s="7">
-        <v>696222</v>
+        <v>666534</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>430</v>
@@ -6666,7 +6672,7 @@
         <v>1086</v>
       </c>
       <c r="I13" s="7">
-        <v>810162</v>
+        <v>852249</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>431</v>
@@ -6681,7 +6687,7 @@
         <v>1878</v>
       </c>
       <c r="N13" s="7">
-        <v>1506384</v>
+        <v>1518783</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>434</v>
@@ -6690,7 +6696,7 @@
         <v>435</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,46 +6708,46 @@
         <v>88</v>
       </c>
       <c r="D14" s="7">
-        <v>197279</v>
+        <v>206956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>546</v>
       </c>
       <c r="I14" s="7">
-        <v>463521</v>
+        <v>411756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>634</v>
       </c>
       <c r="N14" s="7">
-        <v>660801</v>
+        <v>618711</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,7 +6759,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>50</v>
@@ -6768,7 +6774,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -6783,7 +6789,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>50</v>
@@ -6806,46 +6812,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>5538</v>
+        <v>5985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>5872</v>
+        <v>5354</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>11410</v>
+        <v>11339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,46 +6914,46 @@
         <v>437</v>
       </c>
       <c r="D18" s="7">
-        <v>466135</v>
+        <v>450594</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H18" s="7">
         <v>653</v>
       </c>
       <c r="I18" s="7">
-        <v>474525</v>
+        <v>440273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="M18" s="7">
         <v>1090</v>
       </c>
       <c r="N18" s="7">
-        <v>940661</v>
+        <v>890867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,46 +6965,46 @@
         <v>224</v>
       </c>
       <c r="D19" s="7">
-        <v>171736</v>
+        <v>162491</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H19" s="7">
         <v>301</v>
       </c>
       <c r="I19" s="7">
-        <v>187104</v>
+        <v>173483</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M19" s="7">
         <v>525</v>
       </c>
       <c r="N19" s="7">
-        <v>358840</v>
+        <v>335974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,46 +7016,46 @@
         <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>29630</v>
+        <v>27552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
       </c>
       <c r="I20" s="7">
-        <v>46385</v>
+        <v>41353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
       </c>
       <c r="N20" s="7">
-        <v>76015</v>
+        <v>68906</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,7 +7067,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>50</v>
@@ -7076,7 +7082,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -7091,7 +7097,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>50</v>
@@ -7114,46 +7120,46 @@
         <v>19</v>
       </c>
       <c r="D22" s="7">
-        <v>35631</v>
+        <v>37879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>42314</v>
+        <v>37225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>77946</v>
+        <v>75104</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,7 +7195,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7216,46 +7222,46 @@
         <v>1675</v>
       </c>
       <c r="D24" s="7">
-        <v>1838760</v>
+        <v>1967640</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H24" s="7">
         <v>2044</v>
       </c>
       <c r="I24" s="7">
-        <v>1511237</v>
+        <v>1469896</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>3719</v>
       </c>
       <c r="N24" s="7">
-        <v>3349997</v>
+        <v>3437536</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>286</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,46 +7273,46 @@
         <v>1558</v>
       </c>
       <c r="D25" s="7">
-        <v>1268910</v>
+        <v>1205862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H25" s="7">
         <v>2122</v>
       </c>
       <c r="I25" s="7">
-        <v>1395128</v>
+        <v>1389123</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M25" s="7">
         <v>3680</v>
       </c>
       <c r="N25" s="7">
-        <v>2664038</v>
+        <v>2594986</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,46 +7324,46 @@
         <v>112</v>
       </c>
       <c r="D26" s="7">
-        <v>233394</v>
+        <v>240507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H26" s="7">
         <v>1156</v>
       </c>
       <c r="I26" s="7">
-        <v>850680</v>
+        <v>757549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M26" s="7">
         <v>1268</v>
       </c>
       <c r="N26" s="7">
-        <v>1084074</v>
+        <v>998057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>507</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,7 +7375,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>50</v>
@@ -7384,7 +7390,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -7399,7 +7405,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>50</v>
